--- a/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
+++ b/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,6 +49,12 @@
     <t>金元顺安价值增长混合</t>
   </si>
   <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
     <t>74.87</t>
   </si>
   <si>
@@ -53,6 +65,12 @@
   </si>
   <si>
     <t>3.82</t>
+  </si>
+  <si>
+    <t>0.0331</t>
+  </si>
+  <si>
+    <t>0.0122</t>
   </si>
 </sst>
 </file>
@@ -410,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,44 +450,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
+++ b/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>620002</t>
-  </si>
-  <si>
-    <t>620004</t>
-  </si>
-  <si>
-    <t>金元顺安成长动力混合</t>
-  </si>
-  <si>
-    <t>金元顺安价值增长混合</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>74.87</t>
-  </si>
-  <si>
-    <t>83.89</t>
-  </si>
-  <si>
-    <t>3.85</t>
-  </si>
-  <si>
-    <t>3.82</t>
-  </si>
-  <si>
-    <t>0.0331</t>
-  </si>
-  <si>
-    <t>0.0122</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,89 +446,491 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0866</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6324</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5333</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
+++ b/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -933,4 +934,134 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2481</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
+++ b/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1064,4 +1065,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
+++ b/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1073,7 +1074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,17 +1085,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1104,14 +1125,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.25</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5368</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1120,14 +1163,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.78</v>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7573</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1136,13 +1201,399 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
+++ b/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1508,7 +1509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1519,17 +1520,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1539,14 +1560,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.74</v>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1555,14 +1598,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.25</v>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1571,14 +1636,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.78</v>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1587,13 +1674,567 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
+++ b/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2133,7 +2134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2144,17 +2145,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2164,14 +2185,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.74</v>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2180,14 +2223,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.74</v>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9289</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2196,14 +2261,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.25</v>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4258</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2212,14 +2299,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.78</v>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2228,13 +2337,773 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
+++ b/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>620002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金元顺安成长动力混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0331</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>620004</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金元顺安价值增长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -649,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.22</t>
+          <t>27.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.89</t>
+          <t>89.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0866</t>
+          <t>1.4269</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001725</t>
+          <t>007355</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中国高端制造股票</t>
+          <t>汇添富科技创新灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.90</t>
+          <t>18.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.05</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6324</t>
+          <t>0.9289</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>010615</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>国金自主创新混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>87.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5333</t>
+          <t>0.4258</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>690011</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>民生加银积极成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2229</t>
+          <t>0.3546</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -791,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005541</t>
+          <t>000006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
+          <t>西部利得量化成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>17.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2131</t>
+          <t>0.2406</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -829,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001541</t>
+          <t>010616</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富民营新动力股票</t>
+          <t>国金自主创新混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.06</t>
+          <t>87.16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0760</t>
+          <t>0.2139</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -867,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005542</t>
+          <t>000884</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合C</t>
+          <t>民生加银优选股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0181</t>
+          <t>0.1806</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -905,34 +905,528 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>960014</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>汇添富民营活力混合型证券投资基金 O</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
-        <v>10</v>
+      <c r="H22" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +1440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +1461,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1007,26 +1501,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.92</t>
+          <t>25.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>88.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2481</t>
+          <t>1.3269</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1035,34 +1529,528 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>960014</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>汇添富民营活力混合型证券投资基金 O</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.56</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
-        <v>8</v>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +2498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1531,7 +2519,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1571,26 +2559,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.42</t>
+          <t>31.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.81</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3269</t>
+          <t>1.2481</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1599,528 +2587,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007355</t>
+          <t>960014</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合A</t>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.80</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.87</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7459</t>
-        </is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>690011</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>民生加银积极成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.33</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2582</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000884</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>民生加银优选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.80</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1333</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007356</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1119</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013296</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>民生加银聚优精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0885</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011888</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>民生加银周期优选混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>86.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0352</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011889</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>民生加银周期优选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004726</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004727</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004833</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>先锋聚利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004834</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>先锋聚利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>960014</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇添富民营活力混合型证券投资基金 O</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2155,7 +2649,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2195,26 +2689,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.23</t>
+          <t>36.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>90.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4269</t>
+          <t>1.0866</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2223,36 +2717,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007355</t>
+          <t>001725</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合A</t>
+          <t>汇添富中国高端制造股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.25</t>
+          <t>13.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>86.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9289</t>
+          <t>0.6324</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2261,36 +2755,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010615</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国金自主创新混合A</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4258</t>
+          <t>0.5333</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2299,36 +2793,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>690011</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>民生加银积极成长混合</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3546</t>
+          <t>0.2229</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2337,36 +2831,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000006</t>
+          <t>005541</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西部利得量化成长混合A</t>
+          <t>前海开源盛鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.31</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2406</t>
+          <t>0.2131</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2375,36 +2869,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010616</t>
+          <t>001541</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国金自主创新混合C</t>
+          <t>汇添富民营新动力股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>84.06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2139</t>
+          <t>0.0760</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2413,36 +2907,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000884</t>
+          <t>005542</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>民生加银优选股票</t>
+          <t>前海开源盛鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1806</t>
+          <t>0.0181</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2451,528 +2945,34 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010779</t>
+          <t>960014</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>西部利得量化优选一年持有期混合A</t>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.46</t>
+          <t>90.89</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1691</t>
-        </is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007356</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1379</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>762001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国金国鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.77</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1355</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>013296</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>民生加银聚优精选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1195</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009762</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国金国鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.77</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0833</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011888</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>民生加银周期优选混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0371</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002210</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0325</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010780</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>西部利得量化优选一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.46</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0325</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002871</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011228</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89.79</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002872</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011889</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>民生加银周期优选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003865</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>960014</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>汇添富民营活力混合型证券投资基金 O</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2986,128 +2986,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.6</v>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
+++ b/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>4.6</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>2.74</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>4.74</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>1.25</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2.78</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -583,6 +600,1120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7411</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3373</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015496</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015495</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>33.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合 O</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>33.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1434,7 +2565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2058,7 +3189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2492,7 +3623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2622,7 +3753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2980,7 +4111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
+++ b/数据整理/stocks/A股/创业板/300748-金力永磁.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>2.05</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>4.6</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>2.74</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>4.74</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.25</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>2.78</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -600,6 +617,360 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6585</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>52.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合 O</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1713,7 +2084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2565,7 +2936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3189,7 +3560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3623,7 +3994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3753,7 +4124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4111,7 +4482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
